--- a/trunk/6. Test/sprint 3/Test case.xlsx
+++ b/trunk/6. Test/sprint 3/Test case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\AP\Test\Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Project\6. Test\sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2748,18 +2748,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2768,15 +2756,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2804,6 +2783,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5471,8 +5471,8 @@
   </sheetPr>
   <dimension ref="A4:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5666,14 +5666,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5688,8 +5688,8 @@
   </sheetPr>
   <dimension ref="A2:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5706,13 +5706,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="54">
         <f>COUNTIF(I11:I42,"&gt;a0")</f>
         <v>0</v>
@@ -5720,11 +5720,11 @@
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>0</v>
@@ -5732,55 +5732,55 @@
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="87"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="54">
         <f>COUNTIF(H11:H42,"Passed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="87" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="54">
         <f>COUNTIF(H11:H42,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="87" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="54">
         <f>COUNTIF(H11:H22,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="88"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="55" t="e">
         <f>1-(D4/D2)</f>
         <v>#DIV/0!</v>
@@ -6066,50 +6066,50 @@
       <c r="J30" s="44"/>
     </row>
     <row r="31" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="94" t="s">
         <v>551</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="92" t="s">
+      <c r="C31" s="85"/>
+      <c r="D31" s="97" t="s">
         <v>517</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>515</v>
       </c>
       <c r="F31" s="45"/>
-      <c r="G31" s="89" t="s">
+      <c r="G31" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="95"/>
-      <c r="I31" s="98"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="91"/>
       <c r="J31" s="45"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="102"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="93"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="33" t="s">
         <v>516</v>
       </c>
       <c r="F32" s="45"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="99"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="92"/>
       <c r="J32" s="45"/>
     </row>
     <row r="33" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="103"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="94"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="99"/>
       <c r="E33" s="33" t="s">
         <v>518</v>
       </c>
       <c r="F33" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="G33" s="91"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="100"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="93"/>
       <c r="J33" s="45"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -6128,131 +6128,131 @@
       <c r="J34" s="44"/>
     </row>
     <row r="35" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="101" t="s">
+      <c r="C35" s="85"/>
+      <c r="D35" s="94" t="s">
         <v>520</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>524</v>
       </c>
       <c r="F35" s="45"/>
-      <c r="G35" s="89" t="s">
+      <c r="G35" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="95"/>
-      <c r="I35" s="98"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="45"/>
     </row>
     <row r="36" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="102"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="102"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="33" t="s">
         <v>525</v>
       </c>
       <c r="F36" s="45" t="s">
         <v>528</v>
       </c>
-      <c r="G36" s="90"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="99"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="92"/>
       <c r="J36" s="45"/>
     </row>
     <row r="37" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B37" s="102"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="102"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="33" t="s">
         <v>526</v>
       </c>
       <c r="F37" s="45" t="s">
         <v>528</v>
       </c>
-      <c r="G37" s="90"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="99"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="92"/>
       <c r="J37" s="45"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B38" s="103"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="103"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="96"/>
       <c r="E38" s="45" t="s">
         <v>527</v>
       </c>
       <c r="F38" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="G38" s="91"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="100"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="93"/>
       <c r="J38" s="45"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="94" t="s">
         <v>266</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="101" t="s">
+      <c r="C39" s="85"/>
+      <c r="D39" s="94" t="s">
         <v>522</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>524</v>
       </c>
       <c r="F39" s="45"/>
-      <c r="G39" s="89" t="s">
+      <c r="G39" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="95"/>
-      <c r="I39" s="98"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="91"/>
       <c r="J39" s="45"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="102"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="102"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="33" t="s">
         <v>525</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="99"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="92"/>
       <c r="J40" s="45"/>
     </row>
     <row r="41" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B41" s="102"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="102"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="33" t="s">
         <v>526</v>
       </c>
       <c r="F41" s="54">
         <v>123456</v>
       </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="99"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="92"/>
       <c r="J41" s="45"/>
     </row>
     <row r="42" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="103"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="103"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="45" t="s">
         <v>527</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="G42" s="91"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="100"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="93"/>
       <c r="J42" s="45"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -6284,108 +6284,108 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="92" t="s">
+      <c r="C45" s="85"/>
+      <c r="D45" s="97" t="s">
         <v>536</v>
       </c>
       <c r="E45" s="64" t="s">
         <v>537</v>
       </c>
       <c r="F45" s="33"/>
-      <c r="G45" s="89" t="s">
+      <c r="G45" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H45" s="95"/>
-      <c r="I45" s="98"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="91"/>
       <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="93"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="64" t="s">
         <v>538</v>
       </c>
       <c r="F46" s="33"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="99"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="92"/>
       <c r="J46" s="45"/>
     </row>
     <row r="47" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="93"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="98"/>
       <c r="E47" s="71" t="s">
         <v>539</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="G47" s="90"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="99"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="92"/>
       <c r="J47" s="45"/>
     </row>
     <row r="48" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="93"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="71" t="s">
         <v>541</v>
       </c>
       <c r="F48" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="G48" s="90"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="99"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="92"/>
       <c r="J48" s="45"/>
     </row>
     <row r="49" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="93"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="98"/>
       <c r="E49" s="71" t="s">
         <v>543</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="99"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="92"/>
       <c r="J49" s="45"/>
     </row>
     <row r="50" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="93"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="64" t="s">
         <v>545</v>
       </c>
       <c r="F50" s="33"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="99"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="92"/>
       <c r="J50" s="45"/>
     </row>
     <row r="51" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="94"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="99"/>
       <c r="E51" s="64" t="s">
         <v>547</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="G51" s="91"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="100"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="93"/>
       <c r="J51" s="45"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -6440,6 +6440,22 @@
   </sheetData>
   <autoFilter ref="B10:J22"/>
   <mergeCells count="32">
+    <mergeCell ref="G45:G51"/>
+    <mergeCell ref="H45:H51"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
     <mergeCell ref="G39:G42"/>
     <mergeCell ref="H39:H42"/>
     <mergeCell ref="I39:I42"/>
@@ -6456,22 +6472,6 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="G45:G51"/>
-    <mergeCell ref="H45:H51"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="H16 H13 H54">
     <cfRule type="containsText" dxfId="79" priority="510" operator="containsText" text="Not Applicable">
@@ -6661,13 +6661,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -6677,11 +6677,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -6691,55 +6691,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="87"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="87" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="87" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="88"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
